--- a/ig/ch-epreg/StructureDefinition-ch-epreg-practitioner-thcp.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-practitioner-thcp.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a family name. {name.where(family.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>Behandelnder Leistungserbringender | Fournisseur de prestations</t>
@@ -376,7 +376,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -907,7 +907,7 @@
     <t>salutationandtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1667,7 +1667,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -3402,7 +3402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>159</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>223</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>251</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>142</v>
@@ -14648,12 +14648,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP105">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
